--- a/VyTrackQa2Users.xlsx
+++ b/VyTrackQa2Users.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>username</t>
   </si>

--- a/VyTrackQa2Users.xlsx
+++ b/VyTrackQa2Users.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cybertek/IdeaProjects/SdetFastTrackCucumber/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aysundamar/IdeaProjects/ApcahePOI-practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCDCDA4-2DEC-5B4C-975E-65E4BFE33F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8C6174-5479-FE44-929C-8FB5AF8E6A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="1700" windowWidth="21580" windowHeight="16440" xr2:uid="{47319A83-4017-A548-AEBB-A2F2B1387863}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="VytrackUsers" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>username</t>
   </si>
@@ -97,15 +97,6 @@
   </si>
   <si>
     <t>Prohaska</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
   <si>
     <t>Roma</t>
@@ -118,7 +109,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -464,21 +454,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45CC427-CF7F-3D44-80B5-6A431C042EC8}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="1" max="1" width="17" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,11 +481,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -508,11 +495,8 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -525,11 +509,8 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -542,11 +523,8 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -554,16 +532,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -576,11 +551,8 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -592,9 +564,6 @@
       </c>
       <c r="D7" t="s">
         <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
